--- a/natmiOut/OldD4/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Omg-Tnfrsf1b.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.22393020235149</v>
+        <v>1.806361333333333</v>
       </c>
       <c r="H2">
-        <v>1.22393020235149</v>
+        <v>5.419084</v>
       </c>
       <c r="I2">
-        <v>0.1085728502640161</v>
+        <v>0.1438280610620411</v>
       </c>
       <c r="J2">
-        <v>0.1085728502640161</v>
+        <v>0.1547213049676104</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.96476186715639</v>
+        <v>11.18077166666667</v>
       </c>
       <c r="N2">
-        <v>9.96476186715639</v>
+        <v>33.542315</v>
       </c>
       <c r="O2">
-        <v>0.05483745512679893</v>
+        <v>0.0566654123397129</v>
       </c>
       <c r="P2">
-        <v>0.05483745512679893</v>
+        <v>0.05684167636225704</v>
       </c>
       <c r="Q2">
-        <v>12.19617300845313</v>
+        <v>20.19651361549555</v>
       </c>
       <c r="R2">
-        <v>12.19617300845313</v>
+        <v>181.76862253946</v>
       </c>
       <c r="S2">
-        <v>0.005953858804341644</v>
+        <v>0.008150076386101962</v>
       </c>
       <c r="T2">
-        <v>0.005953858804341644</v>
+        <v>0.008794618343314981</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.22393020235149</v>
+        <v>1.806361333333333</v>
       </c>
       <c r="H3">
-        <v>1.22393020235149</v>
+        <v>5.419084</v>
       </c>
       <c r="I3">
-        <v>0.1085728502640161</v>
+        <v>0.1438280610620411</v>
       </c>
       <c r="J3">
-        <v>0.1085728502640161</v>
+        <v>0.1547213049676104</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.4344908451863</v>
+        <v>12.200174</v>
       </c>
       <c r="N3">
-        <v>11.4344908451863</v>
+        <v>36.600522</v>
       </c>
       <c r="O3">
-        <v>0.06292557584214831</v>
+        <v>0.06183185838481134</v>
       </c>
       <c r="P3">
-        <v>0.06292557584214831</v>
+        <v>0.06202419320830027</v>
       </c>
       <c r="Q3">
-        <v>13.99501869393513</v>
+        <v>22.03792257353866</v>
       </c>
       <c r="R3">
-        <v>13.99501869393513</v>
+        <v>198.341303161848</v>
       </c>
       <c r="S3">
-        <v>0.006832009123686559</v>
+        <v>0.008893156303350122</v>
       </c>
       <c r="T3">
-        <v>0.006832009123686559</v>
+        <v>0.009596464112751415</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.22393020235149</v>
+        <v>1.806361333333333</v>
       </c>
       <c r="H4">
-        <v>1.22393020235149</v>
+        <v>5.419084</v>
       </c>
       <c r="I4">
-        <v>0.1085728502640161</v>
+        <v>0.1438280610620411</v>
       </c>
       <c r="J4">
-        <v>0.1085728502640161</v>
+        <v>0.1547213049676104</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.98607807241829</v>
+        <v>84.38991299999999</v>
       </c>
       <c r="N4">
-        <v>71.98607807241829</v>
+        <v>253.169739</v>
       </c>
       <c r="O4">
-        <v>0.3961492887312696</v>
+        <v>0.4276976008475411</v>
       </c>
       <c r="P4">
-        <v>0.3961492887312696</v>
+        <v>0.4290280014648685</v>
       </c>
       <c r="Q4">
-        <v>88.10593510166508</v>
+        <v>152.438675766564</v>
       </c>
       <c r="R4">
-        <v>88.10593510166508</v>
+        <v>1371.948081899076</v>
       </c>
       <c r="S4">
-        <v>0.04301105740761663</v>
+        <v>0.06151491665078861</v>
       </c>
       <c r="T4">
-        <v>0.04301105740761663</v>
+        <v>0.06637977225429031</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.22393020235149</v>
+        <v>1.806361333333333</v>
       </c>
       <c r="H5">
-        <v>1.22393020235149</v>
+        <v>5.419084</v>
       </c>
       <c r="I5">
-        <v>0.1085728502640161</v>
+        <v>0.1438280610620411</v>
       </c>
       <c r="J5">
-        <v>0.1085728502640161</v>
+        <v>0.1547213049676104</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>86.64002738377761</v>
+        <v>87.70567066666668</v>
       </c>
       <c r="N5">
-        <v>86.64002738377761</v>
+        <v>263.117012</v>
       </c>
       <c r="O5">
-        <v>0.4767919873230593</v>
+        <v>0.4445022348210965</v>
       </c>
       <c r="P5">
-        <v>0.4767919873230593</v>
+        <v>0.4458849081081047</v>
       </c>
       <c r="Q5">
-        <v>106.0413462475656</v>
+        <v>158.4281322063342</v>
       </c>
       <c r="R5">
-        <v>106.0413462475656</v>
+        <v>1425.853189857008</v>
       </c>
       <c r="S5">
-        <v>0.0517666650467092</v>
+        <v>0.06393189457206239</v>
       </c>
       <c r="T5">
-        <v>0.0517666650467092</v>
+        <v>0.06898789484784901</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.22393020235149</v>
+        <v>1.806361333333333</v>
       </c>
       <c r="H6">
-        <v>1.22393020235149</v>
+        <v>5.419084</v>
       </c>
       <c r="I6">
-        <v>0.1085728502640161</v>
+        <v>0.1438280610620411</v>
       </c>
       <c r="J6">
-        <v>0.1085728502640161</v>
+        <v>0.1547213049676104</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.68916239254845</v>
+        <v>1.8355735</v>
       </c>
       <c r="N6">
-        <v>1.68916239254845</v>
+        <v>3.671147</v>
       </c>
       <c r="O6">
-        <v>0.009295692976723915</v>
+        <v>0.009302893606838107</v>
       </c>
       <c r="P6">
-        <v>0.009295692976723915</v>
+        <v>0.006221220856469531</v>
       </c>
       <c r="Q6">
-        <v>2.067416868916351</v>
+        <v>3.315708994891333</v>
       </c>
       <c r="R6">
-        <v>2.067416868916351</v>
+        <v>19.894253969348</v>
       </c>
       <c r="S6">
-        <v>0.001009259881662112</v>
+        <v>0.001338017149737983</v>
       </c>
       <c r="T6">
-        <v>0.001009259881662112</v>
+        <v>0.0009625554094046805</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.90713105438732</v>
+        <v>2.026462666666667</v>
       </c>
       <c r="H7">
-        <v>1.90713105438732</v>
+        <v>6.079388</v>
       </c>
       <c r="I7">
-        <v>0.1691784825670845</v>
+        <v>0.1613532081222288</v>
       </c>
       <c r="J7">
-        <v>0.1691784825670845</v>
+        <v>0.1735737709111781</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.96476186715639</v>
+        <v>11.18077166666667</v>
       </c>
       <c r="N7">
-        <v>9.96476186715639</v>
+        <v>33.542315</v>
       </c>
       <c r="O7">
-        <v>0.05483745512679893</v>
+        <v>0.0566654123397129</v>
       </c>
       <c r="P7">
-        <v>0.05483745512679893</v>
+        <v>0.05684167636225704</v>
       </c>
       <c r="Q7">
-        <v>19.00410680642852</v>
+        <v>22.65741636702445</v>
       </c>
       <c r="R7">
-        <v>19.00410680642852</v>
+        <v>203.91674730322</v>
       </c>
       <c r="S7">
-        <v>0.009277317446192429</v>
+        <v>0.009143146070581604</v>
       </c>
       <c r="T7">
-        <v>0.009277317446192429</v>
+        <v>0.009866224111109732</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.90713105438732</v>
+        <v>2.026462666666667</v>
       </c>
       <c r="H8">
-        <v>1.90713105438732</v>
+        <v>6.079388</v>
       </c>
       <c r="I8">
-        <v>0.1691784825670845</v>
+        <v>0.1613532081222288</v>
       </c>
       <c r="J8">
-        <v>0.1691784825670845</v>
+        <v>0.1735737709111781</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.4344908451863</v>
+        <v>12.200174</v>
       </c>
       <c r="N8">
-        <v>11.4344908451863</v>
+        <v>36.600522</v>
       </c>
       <c r="O8">
-        <v>0.06292557584214831</v>
+        <v>0.06183185838481134</v>
       </c>
       <c r="P8">
-        <v>0.06292557584214831</v>
+        <v>0.06202419320830027</v>
       </c>
       <c r="Q8">
-        <v>21.80707258196231</v>
+        <v>24.72319713783733</v>
       </c>
       <c r="R8">
-        <v>21.80707258196231</v>
+        <v>222.508774240536</v>
       </c>
       <c r="S8">
-        <v>0.01064565343563464</v>
+        <v>0.009976768714548639</v>
       </c>
       <c r="T8">
-        <v>0.01064565343563464</v>
+        <v>0.01076577310288816</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.90713105438732</v>
+        <v>2.026462666666667</v>
       </c>
       <c r="H9">
-        <v>1.90713105438732</v>
+        <v>6.079388</v>
       </c>
       <c r="I9">
-        <v>0.1691784825670845</v>
+        <v>0.1613532081222288</v>
       </c>
       <c r="J9">
-        <v>0.1691784825670845</v>
+        <v>0.1735737709111781</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.98607807241829</v>
+        <v>84.38991299999999</v>
       </c>
       <c r="N9">
-        <v>71.98607807241829</v>
+        <v>253.169739</v>
       </c>
       <c r="O9">
-        <v>0.3961492887312696</v>
+        <v>0.4276976008475411</v>
       </c>
       <c r="P9">
-        <v>0.3961492887312696</v>
+        <v>0.4290280014648685</v>
       </c>
       <c r="Q9">
-        <v>137.286884975459</v>
+        <v>171.013008137748</v>
       </c>
       <c r="R9">
-        <v>137.286884975459</v>
+        <v>1539.117073239732</v>
       </c>
       <c r="S9">
-        <v>0.06701993553758601</v>
+        <v>0.06901038000293122</v>
       </c>
       <c r="T9">
-        <v>0.06701993553758601</v>
+        <v>0.07446800804074369</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.90713105438732</v>
+        <v>2.026462666666667</v>
       </c>
       <c r="H10">
-        <v>1.90713105438732</v>
+        <v>6.079388</v>
       </c>
       <c r="I10">
-        <v>0.1691784825670845</v>
+        <v>0.1613532081222288</v>
       </c>
       <c r="J10">
-        <v>0.1691784825670845</v>
+        <v>0.1735737709111781</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>86.64002738377761</v>
+        <v>87.70567066666668</v>
       </c>
       <c r="N10">
-        <v>86.64002738377761</v>
+        <v>263.117012</v>
       </c>
       <c r="O10">
-        <v>0.4767919873230593</v>
+        <v>0.4445022348210965</v>
       </c>
       <c r="P10">
-        <v>0.4767919873230593</v>
+        <v>0.4458849081081047</v>
       </c>
       <c r="Q10">
-        <v>165.23388677657</v>
+        <v>177.7322672609618</v>
       </c>
       <c r="R10">
-        <v>165.23388677657</v>
+        <v>1599.590405348656</v>
       </c>
       <c r="S10">
-        <v>0.08066294491545975</v>
+        <v>0.07172186160588419</v>
       </c>
       <c r="T10">
-        <v>0.08066294491545975</v>
+        <v>0.07739392489270788</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.90713105438732</v>
+        <v>2.026462666666667</v>
       </c>
       <c r="H11">
-        <v>1.90713105438732</v>
+        <v>6.079388</v>
       </c>
       <c r="I11">
-        <v>0.1691784825670845</v>
+        <v>0.1613532081222288</v>
       </c>
       <c r="J11">
-        <v>0.1691784825670845</v>
+        <v>0.1735737709111781</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.68916239254845</v>
+        <v>1.8355735</v>
       </c>
       <c r="N11">
-        <v>1.68916239254845</v>
+        <v>3.671147</v>
       </c>
       <c r="O11">
-        <v>0.009295692976723915</v>
+        <v>0.009302893606838107</v>
       </c>
       <c r="P11">
-        <v>0.009295692976723915</v>
+        <v>0.006221220856469531</v>
       </c>
       <c r="Q11">
-        <v>3.221454054732333</v>
+        <v>3.719721169672667</v>
       </c>
       <c r="R11">
-        <v>3.221454054732333</v>
+        <v>22.318327018036</v>
       </c>
       <c r="S11">
-        <v>0.001572631232211656</v>
+        <v>0.0015010517282831</v>
       </c>
       <c r="T11">
-        <v>0.001572631232211656</v>
+        <v>0.001079840763728686</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.49962964678115</v>
+        <v>2.997459000000001</v>
       </c>
       <c r="H12">
-        <v>2.49962964678115</v>
+        <v>8.992377000000001</v>
       </c>
       <c r="I12">
-        <v>0.2217380654828605</v>
+        <v>0.2386669312099414</v>
       </c>
       <c r="J12">
-        <v>0.2217380654828605</v>
+        <v>0.2567430776494193</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.96476186715639</v>
+        <v>11.18077166666667</v>
       </c>
       <c r="N12">
-        <v>9.96476186715639</v>
+        <v>33.542315</v>
       </c>
       <c r="O12">
-        <v>0.05483745512679893</v>
+        <v>0.0566654123397129</v>
       </c>
       <c r="P12">
-        <v>0.05483745512679893</v>
+        <v>0.05684167636225704</v>
       </c>
       <c r="Q12">
-        <v>24.9082141862584</v>
+        <v>33.51390465919501</v>
       </c>
       <c r="R12">
-        <v>24.9082141862584</v>
+        <v>301.6251419327551</v>
       </c>
       <c r="S12">
-        <v>0.01215955121581956</v>
+        <v>0.01352416006886522</v>
       </c>
       <c r="T12">
-        <v>0.01215955121581956</v>
+        <v>0.01459370692799812</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.49962964678115</v>
+        <v>2.997459000000001</v>
       </c>
       <c r="H13">
-        <v>2.49962964678115</v>
+        <v>8.992377000000001</v>
       </c>
       <c r="I13">
-        <v>0.2217380654828605</v>
+        <v>0.2386669312099414</v>
       </c>
       <c r="J13">
-        <v>0.2217380654828605</v>
+        <v>0.2567430776494193</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.4344908451863</v>
+        <v>12.200174</v>
       </c>
       <c r="N13">
-        <v>11.4344908451863</v>
+        <v>36.600522</v>
       </c>
       <c r="O13">
-        <v>0.06292557584214831</v>
+        <v>0.06183185838481134</v>
       </c>
       <c r="P13">
-        <v>0.06292557584214831</v>
+        <v>0.06202419320830027</v>
       </c>
       <c r="Q13">
-        <v>28.58199231247533</v>
+        <v>36.569521357866</v>
       </c>
       <c r="R13">
-        <v>28.58199231247533</v>
+        <v>329.125692220794</v>
       </c>
       <c r="S13">
-        <v>0.01395299545663299</v>
+        <v>0.01475721989171061</v>
       </c>
       <c r="T13">
-        <v>0.01395299545663299</v>
+        <v>0.01592428225302122</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.49962964678115</v>
+        <v>2.997459000000001</v>
       </c>
       <c r="H14">
-        <v>2.49962964678115</v>
+        <v>8.992377000000001</v>
       </c>
       <c r="I14">
-        <v>0.2217380654828605</v>
+        <v>0.2386669312099414</v>
       </c>
       <c r="J14">
-        <v>0.2217380654828605</v>
+        <v>0.2567430776494193</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.98607807241829</v>
+        <v>84.38991299999999</v>
       </c>
       <c r="N14">
-        <v>71.98607807241829</v>
+        <v>253.169739</v>
       </c>
       <c r="O14">
-        <v>0.3961492887312696</v>
+        <v>0.4276976008475411</v>
       </c>
       <c r="P14">
-        <v>0.3961492887312696</v>
+        <v>0.4290280014648685</v>
       </c>
       <c r="Q14">
-        <v>179.9385349053192</v>
+        <v>252.955304231067</v>
       </c>
       <c r="R14">
-        <v>179.9385349053192</v>
+        <v>2276.597738079603</v>
       </c>
       <c r="S14">
-        <v>0.08784137692568288</v>
+        <v>0.1020772738801371</v>
       </c>
       <c r="T14">
-        <v>0.08784137692568288</v>
+        <v>0.1101499694938699</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.49962964678115</v>
+        <v>2.997459000000001</v>
       </c>
       <c r="H15">
-        <v>2.49962964678115</v>
+        <v>8.992377000000001</v>
       </c>
       <c r="I15">
-        <v>0.2217380654828605</v>
+        <v>0.2386669312099414</v>
       </c>
       <c r="J15">
-        <v>0.2217380654828605</v>
+        <v>0.2567430776494193</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>86.64002738377761</v>
+        <v>87.70567066666668</v>
       </c>
       <c r="N15">
-        <v>86.64002738377761</v>
+        <v>263.117012</v>
       </c>
       <c r="O15">
-        <v>0.4767919873230593</v>
+        <v>0.4445022348210965</v>
       </c>
       <c r="P15">
-        <v>0.4767919873230593</v>
+        <v>0.4458849081081047</v>
       </c>
       <c r="Q15">
-        <v>216.5679810464212</v>
+        <v>262.8941518908361</v>
       </c>
       <c r="R15">
-        <v>216.5679810464212</v>
+        <v>2366.047367017525</v>
       </c>
       <c r="S15">
-        <v>0.1057229329067437</v>
+        <v>0.1060879843007119</v>
       </c>
       <c r="T15">
-        <v>0.1057229329067437</v>
+        <v>0.1144778635851033</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.49962964678115</v>
+        <v>2.997459000000001</v>
       </c>
       <c r="H16">
-        <v>2.49962964678115</v>
+        <v>8.992377000000001</v>
       </c>
       <c r="I16">
-        <v>0.2217380654828605</v>
+        <v>0.2386669312099414</v>
       </c>
       <c r="J16">
-        <v>0.2217380654828605</v>
+        <v>0.2567430776494193</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.68916239254845</v>
+        <v>1.8355735</v>
       </c>
       <c r="N16">
-        <v>1.68916239254845</v>
+        <v>3.671147</v>
       </c>
       <c r="O16">
-        <v>0.009295692976723915</v>
+        <v>0.009302893606838107</v>
       </c>
       <c r="P16">
-        <v>0.009295692976723915</v>
+        <v>0.006221220856469531</v>
       </c>
       <c r="Q16">
-        <v>4.222280394641884</v>
+        <v>5.502056307736501</v>
       </c>
       <c r="R16">
-        <v>4.222280394641884</v>
+        <v>33.012337846419</v>
       </c>
       <c r="S16">
-        <v>0.002061208977981374</v>
+        <v>0.002220293068516634</v>
       </c>
       <c r="T16">
-        <v>0.002061208977981374</v>
+        <v>0.001597255389426744</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.0602624152357</v>
+        <v>3.076181333333333</v>
       </c>
       <c r="H17">
-        <v>3.0602624152357</v>
+        <v>9.228543999999999</v>
       </c>
       <c r="I17">
-        <v>0.2714708831758714</v>
+        <v>0.2449350462081291</v>
       </c>
       <c r="J17">
-        <v>0.2714708831758714</v>
+        <v>0.2634859268893066</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.96476186715639</v>
+        <v>11.18077166666667</v>
       </c>
       <c r="N17">
-        <v>9.96476186715639</v>
+        <v>33.542315</v>
       </c>
       <c r="O17">
-        <v>0.05483745512679893</v>
+        <v>0.0566654123397129</v>
       </c>
       <c r="P17">
-        <v>0.05483745512679893</v>
+        <v>0.05684167636225704</v>
       </c>
       <c r="Q17">
-        <v>30.49478621883262</v>
+        <v>34.39408109326222</v>
       </c>
       <c r="R17">
-        <v>30.49478621883262</v>
+        <v>309.54672983936</v>
       </c>
       <c r="S17">
-        <v>0.01488677237438932</v>
+        <v>0.01387934538983026</v>
       </c>
       <c r="T17">
-        <v>0.01488677237438932</v>
+        <v>0.01497698178225128</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.0602624152357</v>
+        <v>3.076181333333333</v>
       </c>
       <c r="H18">
-        <v>3.0602624152357</v>
+        <v>9.228543999999999</v>
       </c>
       <c r="I18">
-        <v>0.2714708831758714</v>
+        <v>0.2449350462081291</v>
       </c>
       <c r="J18">
-        <v>0.2714708831758714</v>
+        <v>0.2634859268893066</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.4344908451863</v>
+        <v>12.200174</v>
       </c>
       <c r="N18">
-        <v>11.4344908451863</v>
+        <v>36.600522</v>
       </c>
       <c r="O18">
-        <v>0.06292557584214831</v>
+        <v>0.06183185838481134</v>
       </c>
       <c r="P18">
-        <v>0.06292557584214831</v>
+        <v>0.06202419320830027</v>
       </c>
       <c r="Q18">
-        <v>34.99254257088032</v>
+        <v>37.52994752221866</v>
       </c>
       <c r="R18">
-        <v>34.99254257088032</v>
+        <v>337.769527699968</v>
       </c>
       <c r="S18">
-        <v>0.01708246164821828</v>
+        <v>0.01514478909061826</v>
       </c>
       <c r="T18">
-        <v>0.01708246164821828</v>
+        <v>0.01634250203705043</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.0602624152357</v>
+        <v>3.076181333333333</v>
       </c>
       <c r="H19">
-        <v>3.0602624152357</v>
+        <v>9.228543999999999</v>
       </c>
       <c r="I19">
-        <v>0.2714708831758714</v>
+        <v>0.2449350462081291</v>
       </c>
       <c r="J19">
-        <v>0.2714708831758714</v>
+        <v>0.2634859268893066</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.98607807241829</v>
+        <v>84.38991299999999</v>
       </c>
       <c r="N19">
-        <v>71.98607807241829</v>
+        <v>253.169739</v>
       </c>
       <c r="O19">
-        <v>0.3961492887312696</v>
+        <v>0.4276976008475411</v>
       </c>
       <c r="P19">
-        <v>0.3961492887312696</v>
+        <v>0.4290280014648685</v>
       </c>
       <c r="Q19">
-        <v>220.2962891452445</v>
+        <v>259.598675092224</v>
       </c>
       <c r="R19">
-        <v>220.2962891452445</v>
+        <v>2336.388075830016</v>
       </c>
       <c r="S19">
-        <v>0.1075429972813711</v>
+        <v>0.1047581316266984</v>
       </c>
       <c r="T19">
-        <v>0.1075429972813711</v>
+        <v>0.1130428406274376</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.0602624152357</v>
+        <v>3.076181333333333</v>
       </c>
       <c r="H20">
-        <v>3.0602624152357</v>
+        <v>9.228543999999999</v>
       </c>
       <c r="I20">
-        <v>0.2714708831758714</v>
+        <v>0.2449350462081291</v>
       </c>
       <c r="J20">
-        <v>0.2714708831758714</v>
+        <v>0.2634859268893066</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>86.64002738377761</v>
+        <v>87.70567066666668</v>
       </c>
       <c r="N20">
-        <v>86.64002738377761</v>
+        <v>263.117012</v>
       </c>
       <c r="O20">
-        <v>0.4767919873230593</v>
+        <v>0.4445022348210965</v>
       </c>
       <c r="P20">
-        <v>0.4767919873230593</v>
+        <v>0.4458849081081047</v>
       </c>
       <c r="Q20">
-        <v>265.1412194575664</v>
+        <v>269.7985469322809</v>
       </c>
       <c r="R20">
-        <v>265.1412194575664</v>
+        <v>2428.186922390528</v>
       </c>
       <c r="S20">
-        <v>0.1294351418897698</v>
+        <v>0.1088741754255219</v>
       </c>
       <c r="T20">
-        <v>0.1294351418897698</v>
+        <v>0.1174843982988173</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.0602624152357</v>
+        <v>3.076181333333333</v>
       </c>
       <c r="H21">
-        <v>3.0602624152357</v>
+        <v>9.228543999999999</v>
       </c>
       <c r="I21">
-        <v>0.2714708831758714</v>
+        <v>0.2449350462081291</v>
       </c>
       <c r="J21">
-        <v>0.2714708831758714</v>
+        <v>0.2634859268893066</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.68916239254845</v>
+        <v>1.8355735</v>
       </c>
       <c r="N21">
-        <v>1.68916239254845</v>
+        <v>3.671147</v>
       </c>
       <c r="O21">
-        <v>0.009295692976723915</v>
+        <v>0.009302893606838107</v>
       </c>
       <c r="P21">
-        <v>0.009295692976723915</v>
+        <v>0.006221220856469531</v>
       </c>
       <c r="Q21">
-        <v>5.169280183145633</v>
+        <v>5.646556936661333</v>
       </c>
       <c r="R21">
-        <v>5.169280183145633</v>
+        <v>33.879341619968</v>
       </c>
       <c r="S21">
-        <v>0.002523509982122986</v>
+        <v>0.0022786046754602</v>
       </c>
       <c r="T21">
-        <v>0.002523509982122986</v>
+        <v>0.00163920414374996</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.58194040536841</v>
+        <v>2.6527075</v>
       </c>
       <c r="H22">
-        <v>2.58194040536841</v>
+        <v>5.305415</v>
       </c>
       <c r="I22">
-        <v>0.2290397185101674</v>
+        <v>0.2112167533976597</v>
       </c>
       <c r="J22">
-        <v>0.2290397185101674</v>
+        <v>0.1514759195824857</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.96476186715639</v>
+        <v>11.18077166666667</v>
       </c>
       <c r="N22">
-        <v>9.96476186715639</v>
+        <v>33.542315</v>
       </c>
       <c r="O22">
-        <v>0.05483745512679893</v>
+        <v>0.0566654123397129</v>
       </c>
       <c r="P22">
-        <v>0.05483745512679893</v>
+        <v>0.05684167636225704</v>
       </c>
       <c r="Q22">
-        <v>25.72842129468544</v>
+        <v>29.65931685595417</v>
       </c>
       <c r="R22">
-        <v>25.72842129468544</v>
+        <v>177.955901135725</v>
       </c>
       <c r="S22">
-        <v>0.01255995528605596</v>
+        <v>0.01196868442433384</v>
       </c>
       <c r="T22">
-        <v>0.01255995528605596</v>
+        <v>0.008610145197582924</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.58194040536841</v>
+        <v>2.6527075</v>
       </c>
       <c r="H23">
-        <v>2.58194040536841</v>
+        <v>5.305415</v>
       </c>
       <c r="I23">
-        <v>0.2290397185101674</v>
+        <v>0.2112167533976597</v>
       </c>
       <c r="J23">
-        <v>0.2290397185101674</v>
+        <v>0.1514759195824857</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.4344908451863</v>
+        <v>12.200174</v>
       </c>
       <c r="N23">
-        <v>11.4344908451863</v>
+        <v>36.600522</v>
       </c>
       <c r="O23">
-        <v>0.06292557584214831</v>
+        <v>0.06183185838481134</v>
       </c>
       <c r="P23">
-        <v>0.06292557584214831</v>
+        <v>0.06202419320830027</v>
       </c>
       <c r="Q23">
-        <v>29.52317392800169</v>
+        <v>32.363493071105</v>
       </c>
       <c r="R23">
-        <v>29.52317392800169</v>
+        <v>194.18095842663</v>
       </c>
       <c r="S23">
-        <v>0.01441245617797584</v>
+        <v>0.01305992438458371</v>
       </c>
       <c r="T23">
-        <v>0.01441245617797584</v>
+        <v>0.009395171702589045</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.58194040536841</v>
+        <v>2.6527075</v>
       </c>
       <c r="H24">
-        <v>2.58194040536841</v>
+        <v>5.305415</v>
       </c>
       <c r="I24">
-        <v>0.2290397185101674</v>
+        <v>0.2112167533976597</v>
       </c>
       <c r="J24">
-        <v>0.2290397185101674</v>
+        <v>0.1514759195824857</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>71.98607807241829</v>
+        <v>84.38991299999999</v>
       </c>
       <c r="N24">
-        <v>71.98607807241829</v>
+        <v>253.169739</v>
       </c>
       <c r="O24">
-        <v>0.3961492887312696</v>
+        <v>0.4276976008475411</v>
       </c>
       <c r="P24">
-        <v>0.3961492887312696</v>
+        <v>0.4290280014648685</v>
       </c>
       <c r="Q24">
-        <v>185.8637635991817</v>
+        <v>223.8617551394475</v>
       </c>
       <c r="R24">
-        <v>185.8637635991817</v>
+        <v>1343.170530836685</v>
       </c>
       <c r="S24">
-        <v>0.09073392157901304</v>
+        <v>0.09033689868698576</v>
       </c>
       <c r="T24">
-        <v>0.09073392157901304</v>
+        <v>0.06498741104852697</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.58194040536841</v>
+        <v>2.6527075</v>
       </c>
       <c r="H25">
-        <v>2.58194040536841</v>
+        <v>5.305415</v>
       </c>
       <c r="I25">
-        <v>0.2290397185101674</v>
+        <v>0.2112167533976597</v>
       </c>
       <c r="J25">
-        <v>0.2290397185101674</v>
+        <v>0.1514759195824857</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>86.64002738377761</v>
+        <v>87.70567066666668</v>
       </c>
       <c r="N25">
-        <v>86.64002738377761</v>
+        <v>263.117012</v>
       </c>
       <c r="O25">
-        <v>0.4767919873230593</v>
+        <v>0.4445022348210965</v>
       </c>
       <c r="P25">
-        <v>0.4767919873230593</v>
+        <v>0.4458849081081047</v>
       </c>
       <c r="Q25">
-        <v>223.6993874244009</v>
+        <v>232.6574903699967</v>
       </c>
       <c r="R25">
-        <v>223.6993874244009</v>
+        <v>1395.94494221998</v>
       </c>
       <c r="S25">
-        <v>0.1092043025643768</v>
+        <v>0.09388631891691615</v>
       </c>
       <c r="T25">
-        <v>0.1092043025643768</v>
+        <v>0.06754082648362728</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.58194040536841</v>
+        <v>2.6527075</v>
       </c>
       <c r="H26">
-        <v>2.58194040536841</v>
+        <v>5.305415</v>
       </c>
       <c r="I26">
-        <v>0.2290397185101674</v>
+        <v>0.2112167533976597</v>
       </c>
       <c r="J26">
-        <v>0.2290397185101674</v>
+        <v>0.1514759195824857</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.68916239254845</v>
+        <v>1.8355735</v>
       </c>
       <c r="N26">
-        <v>1.68916239254845</v>
+        <v>3.671147</v>
       </c>
       <c r="O26">
-        <v>0.009295692976723915</v>
+        <v>0.009302893606838107</v>
       </c>
       <c r="P26">
-        <v>0.009295692976723915</v>
+        <v>0.006221220856469531</v>
       </c>
       <c r="Q26">
-        <v>4.361316632549618</v>
+        <v>4.86923959025125</v>
       </c>
       <c r="R26">
-        <v>4.361316632549618</v>
+        <v>19.476958361005</v>
       </c>
       <c r="S26">
-        <v>0.002129082902745786</v>
+        <v>0.001964926984840189</v>
       </c>
       <c r="T26">
-        <v>0.002129082902745786</v>
+        <v>0.0009423651501594613</v>
       </c>
     </row>
   </sheetData>
